--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -129,7 +129,7 @@
     <t>GỬI MAIL CHO THẦY</t>
   </si>
   <si>
-    <t>5 phút</t>
+    <t>10  phút</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Nhóm S.L.P - LỚP 15SI</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>GỬI MAIL CHO THẦY</t>
-  </si>
-  <si>
-    <t>5 phút</t>
   </si>
 </sst>
 </file>
@@ -705,7 +702,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1261,7 @@
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>

--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -129,7 +129,7 @@
     <t>GỬI MAIL CHO THẦY</t>
   </si>
   <si>
-    <t>10  phút</t>
+    <t>5  phút</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -129,7 +129,7 @@
     <t>GỬI MAIL CHO THẦY</t>
   </si>
   <si>
-    <t>5  phút</t>
+    <t>20  phút</t>
   </si>
 </sst>
 </file>

--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -129,7 +129,7 @@
     <t>GỬI MAIL CHO THẦY</t>
   </si>
   <si>
-    <t>20  phút</t>
+    <t>22 phút</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -129,7 +129,7 @@
     <t>GỬI MAIL CHO THẦY</t>
   </si>
   <si>
-    <t>22 phút</t>
+    <t>19 phút</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
